--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.4961079458719</v>
+        <v>610.5843707733692</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.4258875462701</v>
+        <v>835.4284731734394</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.2378730155692</v>
+        <v>755.6963522249919</v>
       </c>
       <c r="AD2" t="n">
-        <v>537496.1079458719</v>
+        <v>610584.3707733692</v>
       </c>
       <c r="AE2" t="n">
-        <v>735425.8875462702</v>
+        <v>835428.4731734394</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.433647116735206e-06</v>
+        <v>2.652622515461803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>665237.8730155692</v>
+        <v>755696.3522249919</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.640247936986</v>
+        <v>377.4226503916988</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.6600858118656</v>
+        <v>516.4063209781101</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.7451583238745</v>
+        <v>467.1212264847822</v>
       </c>
       <c r="AD3" t="n">
-        <v>328640.247936986</v>
+        <v>377422.6503916988</v>
       </c>
       <c r="AE3" t="n">
-        <v>449660.0858118656</v>
+        <v>516406.3209781101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.992652901427474e-06</v>
+        <v>3.686929572922989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.627314814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>406745.1583238745</v>
+        <v>467121.2264847822</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.7232361942275</v>
+        <v>326.4202977943686</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.9931840454012</v>
+        <v>446.6226520894482</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.7271678838907</v>
+        <v>403.9976130128595</v>
       </c>
       <c r="AD4" t="n">
-        <v>277723.2361942275</v>
+        <v>326420.2977943686</v>
       </c>
       <c r="AE4" t="n">
-        <v>379993.1840454012</v>
+        <v>446622.6520894482</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202673958641338e-06</v>
+        <v>4.075523515311872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.898148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>343727.1678838907</v>
+        <v>403997.6130128595</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.9757777416193</v>
+        <v>293.6479204372286</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.6055960771091</v>
+        <v>401.7820395741608</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.0488514691683</v>
+        <v>363.4365256218363</v>
       </c>
       <c r="AD5" t="n">
-        <v>256975.7777416193</v>
+        <v>293647.9204372286</v>
       </c>
       <c r="AE5" t="n">
-        <v>351605.596077109</v>
+        <v>401782.0395741608</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.32225834155606e-06</v>
+        <v>4.296785932621072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>318048.8514691683</v>
+        <v>363436.5256218363</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>242.5353533826065</v>
+        <v>279.0369038776234</v>
       </c>
       <c r="AB6" t="n">
-        <v>331.8475704025568</v>
+        <v>381.7906021247514</v>
       </c>
       <c r="AC6" t="n">
-        <v>300.1765040344258</v>
+        <v>345.3530429044399</v>
       </c>
       <c r="AD6" t="n">
-        <v>242535.3533826065</v>
+        <v>279036.9038776234</v>
       </c>
       <c r="AE6" t="n">
-        <v>331847.5704025568</v>
+        <v>381790.6021247514</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.3963617953517e-06</v>
+        <v>4.43389672349647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.342592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>300176.5040344258</v>
+        <v>345353.0429044399</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>231.6084089893777</v>
+        <v>268.1099594843944</v>
       </c>
       <c r="AB7" t="n">
-        <v>316.8968430209843</v>
+        <v>366.8398747431712</v>
       </c>
       <c r="AC7" t="n">
-        <v>286.6526530906681</v>
+        <v>331.8291919606801</v>
       </c>
       <c r="AD7" t="n">
-        <v>231608.4089893777</v>
+        <v>268109.9594843945</v>
       </c>
       <c r="AE7" t="n">
-        <v>316896.8430209843</v>
+        <v>366839.8747431712</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.442788055561016e-06</v>
+        <v>4.519797459948526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.221064814814816</v>
       </c>
       <c r="AH7" t="n">
-        <v>286652.6530906681</v>
+        <v>331829.1919606801</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>229.192408198407</v>
+        <v>265.6939586934238</v>
       </c>
       <c r="AB8" t="n">
-        <v>313.5911641523475</v>
+        <v>363.5341958745327</v>
       </c>
       <c r="AC8" t="n">
-        <v>283.6624635737035</v>
+        <v>328.8390024437149</v>
       </c>
       <c r="AD8" t="n">
-        <v>229192.408198407</v>
+        <v>265693.9586934238</v>
       </c>
       <c r="AE8" t="n">
-        <v>313591.1641523475</v>
+        <v>363534.1958745327</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.449878038737778e-06</v>
+        <v>4.532915785085435e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH8" t="n">
-        <v>283662.4635737035</v>
+        <v>328839.0024437149</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.6127787697091</v>
+        <v>470.2607472327031</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.1867629869132</v>
+        <v>643.431500803743</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.4370087650278</v>
+        <v>582.0233014288161</v>
       </c>
       <c r="AD2" t="n">
-        <v>411612.7787697091</v>
+        <v>470260.7472327031</v>
       </c>
       <c r="AE2" t="n">
-        <v>563186.7629869132</v>
+        <v>643431.500803743</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695516400285287e-06</v>
+        <v>3.231915932056723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>509437.0087650277</v>
+        <v>582023.3014288162</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.8229293254514</v>
+        <v>312.1141552321541</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.7613444688059</v>
+        <v>427.0483566933603</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.6128933475879</v>
+        <v>386.2914608966782</v>
       </c>
       <c r="AD3" t="n">
-        <v>276822.9293254514</v>
+        <v>312114.1552321541</v>
       </c>
       <c r="AE3" t="n">
-        <v>378761.3444688059</v>
+        <v>427048.3566933604</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215395804102575e-06</v>
+        <v>4.222886309967861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.094907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>342612.893347588</v>
+        <v>386291.4608966783</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.626335109329</v>
+        <v>271.0028123620553</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.3943467966891</v>
+        <v>370.7980036740485</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.6254828218164</v>
+        <v>335.4095626216632</v>
       </c>
       <c r="AD4" t="n">
-        <v>235626.335109329</v>
+        <v>271002.8123620553</v>
       </c>
       <c r="AE4" t="n">
-        <v>322394.3467966891</v>
+        <v>370798.0036740485</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.405386218477018e-06</v>
+        <v>4.585037361441917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>291625.4828218164</v>
+        <v>335409.5626216632</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.5962308921577</v>
+        <v>252.8021159442883</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.7247627747084</v>
+        <v>345.8950078770404</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.3103292749071</v>
+        <v>312.8832737920515</v>
       </c>
       <c r="AD5" t="n">
-        <v>217596.2308921577</v>
+        <v>252802.1159442884</v>
       </c>
       <c r="AE5" t="n">
-        <v>297724.7627747084</v>
+        <v>345895.0078770404</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509264306061787e-06</v>
+        <v>4.783045028132909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.264467592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>269310.3292749071</v>
+        <v>312883.2737920515</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>211.2573806629288</v>
+        <v>246.4632657150595</v>
       </c>
       <c r="AB6" t="n">
-        <v>289.0516682407465</v>
+        <v>337.2219133430785</v>
       </c>
       <c r="AC6" t="n">
-        <v>261.4649827104991</v>
+        <v>305.0379272276434</v>
       </c>
       <c r="AD6" t="n">
-        <v>211257.3806629288</v>
+        <v>246463.2657150595</v>
       </c>
       <c r="AE6" t="n">
-        <v>289051.6682407465</v>
+        <v>337221.9133430785</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.541970691378749e-06</v>
+        <v>4.845388446201934e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.183449074074075</v>
       </c>
       <c r="AH6" t="n">
-        <v>261464.9827104991</v>
+        <v>305037.9272276434</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.5634292876173</v>
+        <v>232.3318583978086</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.7372910163577</v>
+        <v>317.8866984179344</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.8528899089188</v>
+        <v>287.5480380778044</v>
       </c>
       <c r="AD2" t="n">
-        <v>190563.4292876172</v>
+        <v>232331.8583978086</v>
       </c>
       <c r="AE2" t="n">
-        <v>260737.2910163577</v>
+        <v>317886.6984179344</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.540260821924544e-06</v>
+        <v>5.410090756988372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.906828703703705</v>
       </c>
       <c r="AH2" t="n">
-        <v>235852.8899089188</v>
+        <v>287548.0380778044</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.4467858504082</v>
+        <v>201.7518619779598</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.212811981909</v>
+        <v>276.0457982220905</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.9553085226603</v>
+        <v>249.7003746725663</v>
       </c>
       <c r="AD3" t="n">
-        <v>170446.7858504082</v>
+        <v>201751.8619779598</v>
       </c>
       <c r="AE3" t="n">
-        <v>233212.811981909</v>
+        <v>276045.7982220905</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73625774897533e-06</v>
+        <v>5.827512918635631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.412037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>210955.3085226603</v>
+        <v>249700.3746725663</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.981545500666</v>
+        <v>300.8687296854706</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.6134877794923</v>
+        <v>411.6618693472266</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.0559899985521</v>
+        <v>372.3734383077889</v>
       </c>
       <c r="AD2" t="n">
-        <v>256981.545500666</v>
+        <v>300868.7296854706</v>
       </c>
       <c r="AE2" t="n">
-        <v>351613.4877794923</v>
+        <v>411661.8693472266</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20434691538019e-06</v>
+        <v>4.475586350745025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.612847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>318055.9899985521</v>
+        <v>372373.4383077889</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.5243695710676</v>
+        <v>224.3545063636476</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.052091905867</v>
+        <v>306.9717334288674</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.0422080468686</v>
+        <v>277.6747820280409</v>
       </c>
       <c r="AD3" t="n">
-        <v>191524.3695710676</v>
+        <v>224354.5063636476</v>
       </c>
       <c r="AE3" t="n">
-        <v>262052.091905867</v>
+        <v>306971.7334288674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625984519958541e-06</v>
+        <v>5.331656461508977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.391782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>237042.2080468686</v>
+        <v>277674.7820280409</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.080585011796</v>
+        <v>217.9107218043761</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.2354215921648</v>
+        <v>298.1550631151652</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.0669883736288</v>
+        <v>269.6995623548011</v>
       </c>
       <c r="AD4" t="n">
-        <v>185080.585011796</v>
+        <v>217910.7218043761</v>
       </c>
       <c r="AE4" t="n">
-        <v>253235.4215921648</v>
+        <v>298155.0631151652</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.677137802934896e-06</v>
+        <v>5.435515311260533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.267361111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>229066.9883736288</v>
+        <v>269699.5623548011</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4614260795047</v>
+        <v>199.5620384129065</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.1821581034974</v>
+        <v>273.0495850121886</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3591591547444</v>
+        <v>246.9901158462048</v>
       </c>
       <c r="AD2" t="n">
-        <v>159461.4260795047</v>
+        <v>199562.0384129065</v>
       </c>
       <c r="AE2" t="n">
-        <v>218182.1581034974</v>
+        <v>273049.5850121886</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749089444620672e-06</v>
+        <v>6.121685229910563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>197359.1591547444</v>
+        <v>246990.1158462048</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.4172308007838</v>
+        <v>200.5178431341856</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.4899322902792</v>
+        <v>274.3573591989704</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.5421212086127</v>
+        <v>248.1730779000731</v>
       </c>
       <c r="AD3" t="n">
-        <v>160417.2308007838</v>
+        <v>200517.8431341856</v>
       </c>
       <c r="AE3" t="n">
-        <v>219489.9322902792</v>
+        <v>274357.3591989704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.749341296523436e-06</v>
+        <v>6.122246054905287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>198542.1212086127</v>
+        <v>248173.0779000731</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.6267443332665</v>
+        <v>497.0128959712258</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.7802183261356</v>
+        <v>680.0349709292962</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.6334746824031</v>
+        <v>615.1333877388795</v>
       </c>
       <c r="AD2" t="n">
-        <v>437626.7443332665</v>
+        <v>497012.8959712257</v>
       </c>
       <c r="AE2" t="n">
-        <v>598780.2183261355</v>
+        <v>680034.9709292961</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.625259679674206e-06</v>
+        <v>3.072981954405565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.586226851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>541633.474682403</v>
+        <v>615133.3877388795</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.6319389371685</v>
+        <v>325.2637194284951</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.287196513179</v>
+        <v>445.0401705446237</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.4661026705339</v>
+        <v>402.5661612856463</v>
       </c>
       <c r="AD3" t="n">
-        <v>289631.9389371685</v>
+        <v>325263.719428495</v>
       </c>
       <c r="AE3" t="n">
-        <v>396287.196513179</v>
+        <v>445040.1705446237</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155813873125131e-06</v>
+        <v>4.076134547618061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.22800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>358466.1026705339</v>
+        <v>402566.1612856463</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.1736563835591</v>
+        <v>293.5972368393579</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.8256570790577</v>
+        <v>401.7126920395515</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.6794891053116</v>
+        <v>363.3737965186003</v>
       </c>
       <c r="AD4" t="n">
-        <v>246173.6563835591</v>
+        <v>293597.2368393579</v>
       </c>
       <c r="AE4" t="n">
-        <v>336825.6570790578</v>
+        <v>401712.6920395516</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.351366220457561e-06</v>
+        <v>4.445877821268132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>304679.4891053116</v>
+        <v>363373.7965186003</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.71635209289</v>
+        <v>263.2627917296478</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.5715590697807</v>
+        <v>360.2077659791777</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.8356067656827</v>
+        <v>325.8300423488989</v>
       </c>
       <c r="AD5" t="n">
-        <v>227716.35209289</v>
+        <v>263262.7917296478</v>
       </c>
       <c r="AE5" t="n">
-        <v>311571.5590697807</v>
+        <v>360207.7659791777</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.460772159273502e-06</v>
+        <v>4.652738595512884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.331018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>281835.6067656827</v>
+        <v>325830.0423488989</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.5175360186108</v>
+        <v>248.0639756553653</v>
       </c>
       <c r="AB6" t="n">
-        <v>290.7758683925203</v>
+        <v>339.4120753017423</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.0246276197183</v>
+        <v>307.0190632028848</v>
       </c>
       <c r="AD6" t="n">
-        <v>212517.5360186108</v>
+        <v>248063.9756553653</v>
       </c>
       <c r="AE6" t="n">
-        <v>290775.8683925203</v>
+        <v>339412.0753017423</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538734658980924e-06</v>
+        <v>4.800147257474697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.137152777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>263024.6276197183</v>
+        <v>307019.0632028847</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.0288273738078</v>
+        <v>248.5752670105622</v>
       </c>
       <c r="AB7" t="n">
-        <v>291.4754397812831</v>
+        <v>340.1116466905051</v>
       </c>
       <c r="AC7" t="n">
-        <v>263.6574328969924</v>
+        <v>307.6518684801588</v>
       </c>
       <c r="AD7" t="n">
-        <v>213028.8273738078</v>
+        <v>248575.2670105622</v>
       </c>
       <c r="AE7" t="n">
-        <v>291475.4397812831</v>
+        <v>340111.6466905051</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.542072832310938e-06</v>
+        <v>4.806458954326652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>263657.4328969924</v>
+        <v>307651.8684801588</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.8875308583766</v>
+        <v>193.0005459429995</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.5557087590516</v>
+        <v>264.0718615422485</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.4605674319411</v>
+        <v>238.8692137039189</v>
       </c>
       <c r="AD2" t="n">
-        <v>153887.5308583766</v>
+        <v>193000.5459429995</v>
       </c>
       <c r="AE2" t="n">
-        <v>210555.7087590516</v>
+        <v>264071.8615422485</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.730311198220637e-06</v>
+        <v>6.259420665235936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.828703703703705</v>
       </c>
       <c r="AH2" t="n">
-        <v>190460.5674319411</v>
+        <v>238869.2137039189</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.7268123438162</v>
+        <v>375.2227236644235</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.1467711691291</v>
+        <v>513.3962841759347</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.0899565172167</v>
+        <v>464.3984633703931</v>
       </c>
       <c r="AD2" t="n">
-        <v>329726.8123438162</v>
+        <v>375222.7236644235</v>
       </c>
       <c r="AE2" t="n">
-        <v>451146.7711691291</v>
+        <v>513396.2841759348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927598670000324e-06</v>
+        <v>3.778066753913889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.402777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>408089.9565172167</v>
+        <v>464398.4633703931</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.4362379303277</v>
+        <v>273.9320597423869</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.5565386316841</v>
+        <v>374.805929169092</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.7265812606258</v>
+        <v>339.0349773326186</v>
       </c>
       <c r="AD3" t="n">
-        <v>228436.2379303277</v>
+        <v>273932.0597423869</v>
       </c>
       <c r="AE3" t="n">
-        <v>312556.5386316841</v>
+        <v>374805.929169092</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406363666646647e-06</v>
+        <v>4.716439530839939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>282726.5812606259</v>
+        <v>339034.9773326186</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.1824924557612</v>
+        <v>237.2831131097111</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.0032499567797</v>
+        <v>324.6612235486976</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.4710099609981</v>
+        <v>293.6760120381955</v>
       </c>
       <c r="AD4" t="n">
-        <v>203182.4924557612</v>
+        <v>237283.1131097112</v>
       </c>
       <c r="AE4" t="n">
-        <v>278003.2499567796</v>
+        <v>324661.2235486977</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.580225946499737e-06</v>
+        <v>5.057207196586732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>251471.0099609981</v>
+        <v>293676.0120381955</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.5665041791164</v>
+        <v>232.6671248330664</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.687451153647</v>
+        <v>318.345424745565</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.7579821313552</v>
+        <v>287.9629842085525</v>
       </c>
       <c r="AD5" t="n">
-        <v>198566.5041791164</v>
+        <v>232667.1248330664</v>
       </c>
       <c r="AE5" t="n">
-        <v>271687.451153647</v>
+        <v>318345.424745565</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608270055387825e-06</v>
+        <v>5.112173262439644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.209490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>245757.9821313552</v>
+        <v>287962.9842085525</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>374.6219033817183</v>
+        <v>432.7659488571695</v>
       </c>
       <c r="AB2" t="n">
-        <v>512.5742153588172</v>
+        <v>592.1294635125779</v>
       </c>
       <c r="AC2" t="n">
-        <v>463.6548516474004</v>
+        <v>535.6174585738584</v>
       </c>
       <c r="AD2" t="n">
-        <v>374621.9033817183</v>
+        <v>432765.9488571695</v>
       </c>
       <c r="AE2" t="n">
-        <v>512574.2153588172</v>
+        <v>592129.4635125779</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770909185440439e-06</v>
+        <v>3.404932547438751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.961226851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>463654.8516474005</v>
+        <v>535617.4585738584</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.0089145368296</v>
+        <v>299.5070827462794</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.1779588346652</v>
+        <v>409.798803933402</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.1392203074047</v>
+        <v>370.6881812422311</v>
       </c>
       <c r="AD3" t="n">
-        <v>253008.9145368296</v>
+        <v>299507.0827462794</v>
       </c>
       <c r="AE3" t="n">
-        <v>346177.9588346652</v>
+        <v>409798.803933402</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273349615550379e-06</v>
+        <v>4.370976310549605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.982060185185184</v>
       </c>
       <c r="AH3" t="n">
-        <v>313139.2203074048</v>
+        <v>370688.181242231</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.7489052347055</v>
+        <v>259.6012856867015</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.5113673638987</v>
+        <v>355.1979318769723</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.162914057694</v>
+        <v>321.2983397820618</v>
       </c>
       <c r="AD4" t="n">
-        <v>224748.9052347055</v>
+        <v>259601.2856867015</v>
       </c>
       <c r="AE4" t="n">
-        <v>307511.3673638987</v>
+        <v>355197.9318769724</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463115349441919e-06</v>
+        <v>4.735839471816231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.44386574074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>278162.914057694</v>
+        <v>321298.3397820618</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.9764090128826</v>
+        <v>242.8287894648754</v>
       </c>
       <c r="AB5" t="n">
-        <v>284.562498082902</v>
+        <v>332.2490625958032</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.4042526519279</v>
+        <v>300.5396783762466</v>
       </c>
       <c r="AD5" t="n">
-        <v>207976.4090128826</v>
+        <v>242828.7894648754</v>
       </c>
       <c r="AE5" t="n">
-        <v>284562.498082902</v>
+        <v>332249.0625958032</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.55701099580675e-06</v>
+        <v>4.916372920396712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.206597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>257404.2526519279</v>
+        <v>300539.6783762466</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.5166616309663</v>
+        <v>242.369042082959</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.9334514323413</v>
+        <v>331.6200159452425</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.835241330824</v>
+        <v>299.9706670551428</v>
       </c>
       <c r="AD6" t="n">
-        <v>207516.6616309663</v>
+        <v>242369.042082959</v>
       </c>
       <c r="AE6" t="n">
-        <v>283933.4514323412</v>
+        <v>331620.0159452425</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.559753275198246e-06</v>
+        <v>4.921645509432357e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.200810185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>256835.241330824</v>
+        <v>299970.6670551428</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.8206602082404</v>
+        <v>567.1996860590676</v>
       </c>
       <c r="AB2" t="n">
-        <v>693.4543866463999</v>
+        <v>776.0676335501252</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.2720732542114</v>
+        <v>702.0008278218652</v>
       </c>
       <c r="AD2" t="n">
-        <v>506820.6602082404</v>
+        <v>567199.6860590676</v>
       </c>
       <c r="AE2" t="n">
-        <v>693454.3866464</v>
+        <v>776067.6335501252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.493916789268649e-06</v>
+        <v>2.783053670160921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>627272.0732542113</v>
+        <v>702000.8278218652</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4749644813162</v>
+        <v>363.6757940382022</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.6467641765038</v>
+        <v>497.5972656467565</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.4510028235359</v>
+        <v>450.1072809955778</v>
       </c>
       <c r="AD3" t="n">
-        <v>315474.9644813163</v>
+        <v>363675.7940382023</v>
       </c>
       <c r="AE3" t="n">
-        <v>431646.7641765038</v>
+        <v>497597.2656467565</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.044686111577332e-06</v>
+        <v>3.809095143738321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.491319444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>390451.0028235359</v>
+        <v>450107.2809955778</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.5724246830362</v>
+        <v>314.8585055859427</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.7361517967046</v>
+        <v>430.8032979196066</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.9262453796305</v>
+        <v>389.6880358023846</v>
       </c>
       <c r="AD4" t="n">
-        <v>266572.4246830362</v>
+        <v>314858.5055859427</v>
       </c>
       <c r="AE4" t="n">
-        <v>364736.1517967046</v>
+        <v>430803.2979196066</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.254056802631815e-06</v>
+        <v>4.199136861154567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>329926.2453796305</v>
+        <v>389688.0358023846</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.1292879556186</v>
+        <v>283.3226029277097</v>
       </c>
       <c r="AB5" t="n">
-        <v>338.1331943554385</v>
+        <v>387.6544846367776</v>
       </c>
       <c r="AC5" t="n">
-        <v>305.862236859175</v>
+        <v>350.657284699529</v>
       </c>
       <c r="AD5" t="n">
-        <v>247129.2879556186</v>
+        <v>283322.6029277097</v>
       </c>
       <c r="AE5" t="n">
-        <v>338133.1943554385</v>
+        <v>387654.4846367775</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.367556363092197e-06</v>
+        <v>4.410577933756445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.469907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>305862.236859175</v>
+        <v>350657.2846995291</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.6815254310317</v>
+        <v>268.8748404031227</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.3651282790108</v>
+        <v>367.8864185603398</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.9808072644204</v>
+        <v>332.7758551047715</v>
       </c>
       <c r="AD6" t="n">
-        <v>232681.5254310317</v>
+        <v>268874.8404031227</v>
       </c>
       <c r="AE6" t="n">
-        <v>318365.1282790108</v>
+        <v>367886.4185603398</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.442411017239109e-06</v>
+        <v>4.550026476974288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.27025462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>287980.8072644204</v>
+        <v>332775.8551047715</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>224.3912597857694</v>
+        <v>260.5845747578603</v>
       </c>
       <c r="AB7" t="n">
-        <v>307.022021082461</v>
+        <v>356.5433113637841</v>
       </c>
       <c r="AC7" t="n">
-        <v>277.7202702985547</v>
+        <v>322.5153181389041</v>
       </c>
       <c r="AD7" t="n">
-        <v>224391.2597857694</v>
+        <v>260584.5747578602</v>
       </c>
       <c r="AE7" t="n">
-        <v>307022.021082461</v>
+        <v>356543.3113637841</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.473803386340325e-06</v>
+        <v>4.608508079610909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>277720.2702985547</v>
+        <v>322515.3181389041</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>225.3573491947156</v>
+        <v>261.5506641668064</v>
       </c>
       <c r="AB8" t="n">
-        <v>308.3438672326371</v>
+        <v>357.865157513961</v>
       </c>
       <c r="AC8" t="n">
-        <v>278.9159613073812</v>
+        <v>323.7110091477308</v>
       </c>
       <c r="AD8" t="n">
-        <v>225357.3491947156</v>
+        <v>261550.6641668064</v>
       </c>
       <c r="AE8" t="n">
-        <v>308343.8672326371</v>
+        <v>357865.157513961</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.471738795455085e-06</v>
+        <v>4.604661903383543e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.197916666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>278915.9613073812</v>
+        <v>323711.0091477308</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.4273986961218</v>
+        <v>321.9093326525579</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.5884061290636</v>
+        <v>440.4505505726862</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.361021403779</v>
+        <v>398.4145682022585</v>
       </c>
       <c r="AD2" t="n">
-        <v>277427.3986961218</v>
+        <v>321909.3326525579</v>
       </c>
       <c r="AE2" t="n">
-        <v>379588.4061290636</v>
+        <v>440450.5505726861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101733532416801e-06</v>
+        <v>4.212919306569379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.884837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>343361.021403779</v>
+        <v>398414.5682022585</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.1077449684826</v>
+        <v>237.5545362903809</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.2692212639444</v>
+        <v>325.0325967188354</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.6161587434093</v>
+        <v>294.0119418742009</v>
       </c>
       <c r="AD3" t="n">
-        <v>204107.7449684826</v>
+        <v>237554.5362903809</v>
       </c>
       <c r="AE3" t="n">
-        <v>279269.2212639443</v>
+        <v>325032.5967188354</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549077818800464e-06</v>
+        <v>5.109619745383849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.501736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>252616.1587434093</v>
+        <v>294011.9418742009</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.3864326646472</v>
+        <v>222.6626317859533</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.1268723113845</v>
+        <v>304.6568359914287</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.396167304911</v>
+        <v>275.5808151530516</v>
       </c>
       <c r="AD4" t="n">
-        <v>189386.4326646472</v>
+        <v>222662.6317859533</v>
       </c>
       <c r="AE4" t="n">
-        <v>259126.8723113845</v>
+        <v>304656.8359914287</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.655201101692402e-06</v>
+        <v>5.322343585240873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.241319444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>234396.167304911</v>
+        <v>275580.8151530516</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.4499867197312</v>
+        <v>251.385823248898</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.2611532799284</v>
+        <v>343.9571737287843</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.6046502301562</v>
+        <v>311.130383815137</v>
       </c>
       <c r="AD2" t="n">
-        <v>219449.9867197312</v>
+        <v>251385.823248898</v>
       </c>
       <c r="AE2" t="n">
-        <v>300261.1532799284</v>
+        <v>343957.1737287843</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.420363003922354e-06</v>
+        <v>5.06355076866606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.132523148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>271604.6502301561</v>
+        <v>311130.383815137</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.7239832489686</v>
+        <v>206.5744789235638</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.0650621592482</v>
+        <v>282.6443154859064</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.2490281567608</v>
+        <v>255.6691387098028</v>
       </c>
       <c r="AD3" t="n">
-        <v>174723.9832489686</v>
+        <v>206574.4789235638</v>
       </c>
       <c r="AE3" t="n">
-        <v>239065.0621592482</v>
+        <v>282644.3154859064</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725272306454881e-06</v>
+        <v>5.701440097956742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.333912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>216249.0281567608</v>
+        <v>255669.1387098028</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.6687602292604</v>
+        <v>211.6449601862642</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.5165271198728</v>
+        <v>289.5819716433755</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.2300375141239</v>
+        <v>261.9446747006668</v>
       </c>
       <c r="AD2" t="n">
-        <v>170668.7602292604</v>
+        <v>211644.9601862642</v>
       </c>
       <c r="AE2" t="n">
-        <v>233516.5271198729</v>
+        <v>289581.9716433755</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687349971181886e-06</v>
+        <v>5.841911240478312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>211230.0375141239</v>
+        <v>261944.6747006668</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.5992793484254</v>
+        <v>196.3101836110863</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.5802397290059</v>
+        <v>268.6002538106317</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.9557396566985</v>
+        <v>242.9654225698475</v>
       </c>
       <c r="AD3" t="n">
-        <v>165599.2793484254</v>
+        <v>196310.1836110863</v>
       </c>
       <c r="AE3" t="n">
-        <v>226580.2397290058</v>
+        <v>268600.2538106317</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747766900906478e-06</v>
+        <v>5.97324893175715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.498842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>204955.7396566985</v>
+        <v>242965.4225698475</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7852153817446</v>
+        <v>186.322436913417</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8886926776263</v>
+        <v>254.934578150601</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2845788502187</v>
+        <v>230.6039798149096</v>
       </c>
       <c r="AD2" t="n">
-        <v>157785.2153817446</v>
+        <v>186322.436913417</v>
       </c>
       <c r="AE2" t="n">
-        <v>215888.6926776263</v>
+        <v>254934.578150601</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662916784305073e-06</v>
+        <v>6.333819373087754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.196180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>195284.5788502187</v>
+        <v>230603.9798149096</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.1949842739478</v>
+        <v>409.7259249251439</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.8887152297234</v>
+        <v>560.6050863146625</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.8979325832574</v>
+        <v>507.1017236909707</v>
       </c>
       <c r="AD2" t="n">
-        <v>352194.9842739478</v>
+        <v>409725.9249251439</v>
       </c>
       <c r="AE2" t="n">
-        <v>481888.7152297234</v>
+        <v>560605.0863146625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.84497813347637e-06</v>
+        <v>3.580324336054586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.686342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>435897.9325832574</v>
+        <v>507101.7236909707</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.1784599956754</v>
+        <v>287.1861443457211</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.9910090086473</v>
+        <v>392.9407524523186</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.4971302542501</v>
+        <v>355.4390385340782</v>
       </c>
       <c r="AD3" t="n">
-        <v>241178.4599956754</v>
+        <v>287186.1443457211</v>
       </c>
       <c r="AE3" t="n">
-        <v>329991.0090086473</v>
+        <v>392940.7524523186</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.334819357072957e-06</v>
+        <v>4.530899533572545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.863425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>298497.1302542501</v>
+        <v>355439.0385340782</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.0871272888673</v>
+        <v>248.571644846307</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.9234524139639</v>
+        <v>340.1066906855724</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.9672492363091</v>
+        <v>307.647385469381</v>
       </c>
       <c r="AD4" t="n">
-        <v>214087.1272888673</v>
+        <v>248571.644846307</v>
       </c>
       <c r="AE4" t="n">
-        <v>292923.4524139639</v>
+        <v>340106.6906855724</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.520884795279555e-06</v>
+        <v>4.891974065797224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.357060185185184</v>
       </c>
       <c r="AH4" t="n">
-        <v>264967.2492363091</v>
+        <v>307647.3854693811</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.650220239237</v>
+        <v>237.1347377966766</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.2749716279386</v>
+        <v>324.4582098995472</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.8122374937164</v>
+        <v>293.4923737267883</v>
       </c>
       <c r="AD5" t="n">
-        <v>202650.220239237</v>
+        <v>237134.7377966766</v>
       </c>
       <c r="AE5" t="n">
-        <v>277274.9716279386</v>
+        <v>324458.2098995472</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583589789637955e-06</v>
+        <v>5.013658010566005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH5" t="n">
-        <v>250812.2374937164</v>
+        <v>293492.3737267883</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.313956849066</v>
+        <v>237.7984744065056</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.1831253394988</v>
+        <v>325.3663636111072</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.6337182896472</v>
+        <v>294.3138545227192</v>
       </c>
       <c r="AD6" t="n">
-        <v>203313.956849066</v>
+        <v>237798.4744065056</v>
       </c>
       <c r="AE6" t="n">
-        <v>278183.1253394988</v>
+        <v>325366.3636111072</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.583368217219728e-06</v>
+        <v>5.013228031962582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH6" t="n">
-        <v>251633.7182896472</v>
+        <v>294313.8545227192</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.3709064981493</v>
+        <v>537.1212090137528</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.7410049861782</v>
+        <v>734.9129342879713</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.97133714191</v>
+        <v>664.7738752963081</v>
       </c>
       <c r="AD2" t="n">
-        <v>465370.9064981493</v>
+        <v>537121.2090137529</v>
       </c>
       <c r="AE2" t="n">
-        <v>636741.0049861781</v>
+        <v>734912.9342879714</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.55790660116335e-06</v>
+        <v>2.92324384031129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>575971.33714191</v>
+        <v>664773.8752963081</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.452265153612</v>
+        <v>350.2289957695176</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.828532435392</v>
+        <v>479.1987630246707</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.3333181117505</v>
+        <v>433.4647056412833</v>
       </c>
       <c r="AD3" t="n">
-        <v>302452.265153612</v>
+        <v>350228.9957695176</v>
       </c>
       <c r="AE3" t="n">
-        <v>413828.532435392</v>
+        <v>479198.7630246707</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.09927193896225e-06</v>
+        <v>3.939057553339355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.358217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>374333.3181117505</v>
+        <v>433464.7056412833</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.7310748073731</v>
+        <v>304.5930567693026</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.2707827269421</v>
+        <v>416.7576579690405</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7459922352276</v>
+        <v>376.982892015521</v>
       </c>
       <c r="AD4" t="n">
-        <v>256731.0748073731</v>
+        <v>304593.0567693026</v>
       </c>
       <c r="AE4" t="n">
-        <v>351270.782726942</v>
+        <v>416757.6579690404</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298907746827354e-06</v>
+        <v>4.313652631896342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>317745.9922352275</v>
+        <v>376982.892015521</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.5776294960295</v>
+        <v>273.4528702623852</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.0641938616041</v>
+        <v>374.1502809822059</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.0405234300106</v>
+        <v>338.4419032884808</v>
       </c>
       <c r="AD5" t="n">
-        <v>237577.6294960295</v>
+        <v>273452.8702623852</v>
       </c>
       <c r="AE5" t="n">
-        <v>325064.193861604</v>
+        <v>374150.2809822059</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412817590138619e-06</v>
+        <v>4.527392176720034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.400462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>294040.5234300107</v>
+        <v>338441.9032884808</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.4346694092912</v>
+        <v>257.3099101756436</v>
       </c>
       <c r="AB6" t="n">
-        <v>302.9766836938039</v>
+        <v>352.0627708142234</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.061014232603</v>
+        <v>318.4623940910214</v>
       </c>
       <c r="AD6" t="n">
-        <v>221434.6694092912</v>
+        <v>257309.9101756435</v>
       </c>
       <c r="AE6" t="n">
-        <v>302976.6836938038</v>
+        <v>352062.7708142234</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498917204600227e-06</v>
+        <v>4.688948824236724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.180555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>274061.014232603</v>
+        <v>318462.3940910214</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>219.7654207948066</v>
+        <v>255.640661561159</v>
       </c>
       <c r="AB7" t="n">
-        <v>300.6927440974156</v>
+        <v>349.7788312178353</v>
       </c>
       <c r="AC7" t="n">
-        <v>271.995050625764</v>
+        <v>316.3964304841824</v>
       </c>
       <c r="AD7" t="n">
-        <v>219765.4207948066</v>
+        <v>255640.661561159</v>
       </c>
       <c r="AE7" t="n">
-        <v>300692.7440974156</v>
+        <v>349778.8312178353</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.497903011993426e-06</v>
+        <v>4.687045801110366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.183449074074075</v>
       </c>
       <c r="AH7" t="n">
-        <v>271995.050625764</v>
+        <v>316396.4304841824</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.9019232749026</v>
+        <v>197.4574437818151</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.153109916491</v>
+        <v>270.1699857897686</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.1420060929547</v>
+        <v>244.3853415320287</v>
       </c>
       <c r="AD2" t="n">
-        <v>160901.9232749026</v>
+        <v>197457.4437818151</v>
       </c>
       <c r="AE2" t="n">
-        <v>220153.109916491</v>
+        <v>270169.9857897686</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.471511535400883e-06</v>
+        <v>6.18106278818468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.029513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>199142.0060929547</v>
+        <v>244385.3415320287</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.212630536851</v>
+        <v>281.2978262336334</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.9330302999244</v>
+        <v>384.884095837099</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.8264393380775</v>
+        <v>348.1512979186267</v>
       </c>
       <c r="AD2" t="n">
-        <v>238212.630536851</v>
+        <v>281297.8262336334</v>
       </c>
       <c r="AE2" t="n">
-        <v>325933.0302999244</v>
+        <v>384884.095837099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.306602361343357e-06</v>
+        <v>4.749948087172983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.375578703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>294826.4393380776</v>
+        <v>348151.2979186267</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.4293553386808</v>
+        <v>212.7859449156886</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.8714039556408</v>
+        <v>291.1431172868668</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.3103436483777</v>
+        <v>263.3568267950254</v>
       </c>
       <c r="AD3" t="n">
-        <v>180429.3553386808</v>
+        <v>212785.9449156886</v>
       </c>
       <c r="AE3" t="n">
-        <v>246871.4039556408</v>
+        <v>291143.1172868668</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.694249827208841e-06</v>
+        <v>5.548224101211587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.313657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>223310.3436483777</v>
+        <v>263356.8267950254</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.6366297974933</v>
+        <v>212.9932193745011</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.1550060144916</v>
+        <v>291.4267193457176</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.5668791247698</v>
+        <v>263.6133622714177</v>
       </c>
       <c r="AD4" t="n">
-        <v>180636.6297974933</v>
+        <v>212993.2193745011</v>
       </c>
       <c r="AE4" t="n">
-        <v>247155.0060144916</v>
+        <v>291426.7193457176</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6964837677158e-06</v>
+        <v>5.55282441794399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.30787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>223566.8791247698</v>
+        <v>263613.3622714176</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.176516890043</v>
+        <v>353.1364948591167</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.6607061973406</v>
+        <v>483.176931548867</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.4180002023836</v>
+        <v>437.0632033449249</v>
       </c>
       <c r="AD2" t="n">
-        <v>308176.516890043</v>
+        <v>353136.4948591167</v>
       </c>
       <c r="AE2" t="n">
-        <v>421660.7061973406</v>
+        <v>483176.931548867</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.015248505304391e-06</v>
+        <v>3.992578320003151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.127893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>381418.0002023836</v>
+        <v>437063.203344925</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.7070425996996</v>
+        <v>261.6669310602249</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.508136124749</v>
+        <v>358.0242390068694</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.2098157648732</v>
+        <v>323.8549081262284</v>
       </c>
       <c r="AD3" t="n">
-        <v>216707.0425996996</v>
+        <v>261666.9310602249</v>
       </c>
       <c r="AE3" t="n">
-        <v>296508.136124749</v>
+        <v>358024.2390068694</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473256956502906e-06</v>
+        <v>4.899977386579909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>268209.8157648732</v>
+        <v>323854.9081262284</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.4877460082334</v>
+        <v>228.1864166485331</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.1067142821369</v>
+        <v>312.2147221325957</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.7098629542467</v>
+        <v>282.4173872484679</v>
       </c>
       <c r="AD4" t="n">
-        <v>194487.7460082334</v>
+        <v>228186.416648533</v>
       </c>
       <c r="AE4" t="n">
-        <v>266106.7142821369</v>
+        <v>312214.7221325957</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.625171771507455e-06</v>
+        <v>5.20094860441135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.238425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>240709.8629542468</v>
+        <v>282417.3872484679</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.3652924953956</v>
+        <v>228.0639631356952</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.9391679836046</v>
+        <v>312.0471758340634</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.5583070392936</v>
+        <v>282.2658313335148</v>
       </c>
       <c r="AD5" t="n">
-        <v>194365.2924953956</v>
+        <v>228063.9631356952</v>
       </c>
       <c r="AE5" t="n">
-        <v>265939.1679836046</v>
+        <v>312047.1758340634</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630209185268784e-06</v>
+        <v>5.21092864851977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.226851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>240558.3070392936</v>
+        <v>282265.8313335148</v>
       </c>
     </row>
   </sheetData>
